--- a/文档/北巴传媒/二期测试/2测试阶段/测试用例.xlsx
+++ b/文档/北巴传媒/二期测试/2测试阶段/测试用例.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="710">
   <si>
     <t>预期结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1542,15 +1542,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>车辆异动问题核实表的流程处理；</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>上刊印制费用结算表，工作流程处理；
-下刊印制费用结算表，工作流程处理；</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>上刊施工费用结算表，工作流程处理；
 下刊施工费用结算表，工作流程处理；</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -1566,10 +1557,6 @@
   </si>
   <si>
     <t>上刊操作统计分析</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>下刊操作统计分析</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -2105,10 +2092,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>印制上刊数据搜索</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>点击【上刊管理】-&gt;【MO制作单】，在MO制作单列表中能看到该条数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2268,10 +2251,6 @@
   </si>
   <si>
     <t>施工员登录广告施工助手APP，点击【上刊管理】，查看上刊车辆状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2644,6 +2623,549 @@
   </si>
   <si>
     <t>能看到车辆巡检信息列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刊印制费用结算表，工作流程处理；
+下刊印制费用结算表，工作流程处理；</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆异动问题核实表的流程处理；</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建上刊印制结算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建下刊印制结算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刊印制结算流程处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刊印制结算流程处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 上刊印制单位登录，点击【上刊印制结算】-&gt;【新建】，然后选营销中心和提交起止日期，核实信息无误，点击【保存信息】
+2. 上刊印制单位登录，点击【待办事项】-&gt; 【上刊印制结算】，选择相应的上刊印制结算单，进入详情页，核实信息无误，点击【同意】
+3. 生产运营部登录,点击【待办事项】-&gt; 【上刊印制结算】，选择相应的上刊印制结算单，进入详情页，给印制单位每项工作打分，保存结算信息，核实无误之后，点击【同意】
+4. 上刊印制单位登录，点击【待办事项】-&gt; 【上刊印制结算】，选择相应的上刊印制结算单，进入详情页，核实信息无误，点击【同意】
+5. 生产运营部登录,点击【待办事项】-&gt; 【上刊印制结算】，选择相应的上刊印制结算单，进入详情页，，核实无误之后，点击【同意】，结束流程
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能按照测试步骤完整走完整个流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能按照测试步骤完整走完整个流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刊印制单位登录，点击【下刊印制结算】-&gt;【新建】，然后选营销中心和提交起止日期，核实信息无误，点击【保存信息】</t>
+  </si>
+  <si>
+    <t>上刊印制单位登录，在【待办事项】-&gt;【上刊印制结算】中，看到刚刚提交的上刊印制结算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刊印制单位登录，点击【上刊印制结算】-&gt;【新建】，然后选营销中心和提交起止日期，核实信息无误，点击【保存信息】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刊印制单位登录，在【待办事项】-&gt;【下刊印制结算】中，看到刚刚提交的下刊印制结算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 下刊印制单位登录，点击【下刊印制结算】-&gt;【新建】，然后选营销中心和提交起止日期，核实信息无误，点击【保存信息】
+2. 下刊印制单位登录，点击【待办事项】-&gt; 【下刊印制结算】，选择相应的下刊印制结算单，进入详情页，核实信息无误，点击【同意】
+3. 生产运营部登录,点击【待办事项】-&gt; 【下刊印制结算】，选择相应的下刊印制结算单，进入详情页，给印制单位每项工作打分，保存结算信息，核实无误之后，点击【同意】
+4. 下刊印制单位登录，点击【待办事项】-&gt; 【下刊印制结算】，选择相应的下刊印制结算单，进入详情页，核实信息无误，点击【同意】
+5. 生产运营部登录,点击【待办事项】-&gt; 【下刊印制结算】，选择相应的下刊印制结算单，进入详情页，，核实无误之后，点击【同意】，结束流程
+</t>
+  </si>
+  <si>
+    <t>新建上刊施工结算</t>
+  </si>
+  <si>
+    <t>上刊施工单位登录，点击【上刊施工结算】-&gt;【新建】，然后选营销中心和提交起止日期，核实信息无误，点击【保存信息】</t>
+  </si>
+  <si>
+    <t>上刊施工单位登录，在【待办事项】-&gt;【上刊施工结算】中，看到刚刚提交的上刊施工结算</t>
+  </si>
+  <si>
+    <t>上刊施工结算流程处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 上刊施工单位登录，点击【上刊施工结算】-&gt;【新建】，然后选营销中心和提交起止日期，核实信息无误，点击【保存信息】
+2. 上刊施工单位登录，点击【待办事项】-&gt; 【上刊施工结算】，选择相应的上刊施工结算单，进入详情页，核实信息无误，点击【同意】
+3. 生产运营部登录,点击【待办事项】-&gt; 【上刊施工结算】，选择相应的上刊施工结算单，进入详情页，给施工单位每项工作打分，保存结算信息，核实无误之后，点击【同意】
+4. 上刊施工单位登录，点击【待办事项】-&gt; 【上刊施工结算】，选择相应的上刊施工结算单，进入详情页，核实信息无误，点击【同意】
+5. 生产运营部登录,点击【待办事项】-&gt; 【上刊施工结算】，选择相应的上刊施工结算单，进入详情页，，核实无误之后，点击【同意】，结束流程
+</t>
+  </si>
+  <si>
+    <t>新建下刊施工结算</t>
+  </si>
+  <si>
+    <t>下刊施工单位登录，点击【下刊施工结算】-&gt;【新建】，然后选营销中心和提交起止日期，核实信息无误，点击【保存信息】</t>
+  </si>
+  <si>
+    <t>下刊施工单位登录，在【待办事项】-&gt;【下刊施工结算】中，看到刚刚提交的下刊施工结算</t>
+  </si>
+  <si>
+    <t>下刊施工结算流程处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 下刊施工单位登录，点击【下刊施工结算】-&gt;【新建】，然后选营销中心和提交起止日期，核实信息无误，点击【保存信息】
+2. 下刊施工单位登录，点击【待办事项】-&gt; 【下刊施工结算】，选择相应的下刊施工结算单，进入详情页，核实信息无误，点击【同意】
+3. 生产运营部登录,点击【待办事项】-&gt; 【下刊施工结算】，选择相应的下刊施工结算单，进入详情页，给施工单位每项工作打分，保存结算信息，核实无误之后，点击【同意】
+4. 下刊施工单位登录，点击【待办事项】-&gt; 【下刊施工结算】，选择相应的下刊施工结算单，进入详情页，核实信息无误，点击【同意】
+5. 生产运营部登录,点击【待办事项】-&gt; 【下刊施工结算】，选择相应的下刊施工结算单，进入详情页，，核实无误之后，点击【同意】，结束流程
+</t>
+  </si>
+  <si>
+    <t>上刊印制统计分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刊施工统计分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刊印制统计分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刊施工统计分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查数据统计分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡检数据统计分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【统计分析】-&gt;【上刊印制统计分析】，输入年份信息，回车确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到按照车辆类型的上刊印制统计分析图表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【统计分析】-&gt;【上刊施工统计分析】，输入年份信息，回车确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【统计分析】-&gt;【下刊印制统计分析】，输入年份信息，回车确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到按照车辆类型的上刊施工统计分析图表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到按照车辆类型的下刊印制统计分析图表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【统计分析】-&gt;【下刊施工统计分析】，输入年份信息，回车确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到按照车辆类型的下刊施工统计分析图表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【统计分析】-&gt;【巡检数据统计分析】，输入年份信息，回车确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到车辆检查月破损率折线图和详细数据统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【统计分析】-&gt;【上刊检查统计分析】，输入年份信息，回车确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到上刊检查月合格率折线图和详细数据统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工人员列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加施工人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改施工人员信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除施工人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到施工人员列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【配置信息管理】-&gt;【施工人员管理】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击【配置信息管理】-&gt;【施工人员管理】-&gt;【增加人员】
+2. 输入施工人员的公司、姓名、电话等信息，点击【保存】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在施工人员列表中可以看到新增的施工人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击【配置信息管理】-&gt;【施工人员管理】
+2. 找到待删除的施工人员，点击【删除】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击【配置信息管理】-&gt;【施工人员管理】
+2. 找到待修改的施工人员，点击【编辑】
+3. 修改该施工人员的信息之后，点击【保存】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在列表中找到该施工人员，该人员的信息已被修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表中无法找到该施工人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工车辆列表</t>
+  </si>
+  <si>
+    <t>点击【配置信息管理】-&gt;【施工车辆管理】</t>
+  </si>
+  <si>
+    <t>可以看到施工车辆列表</t>
+  </si>
+  <si>
+    <t>增加施工车辆</t>
+  </si>
+  <si>
+    <t>在施工车辆列表中可以看到新增的施工车辆</t>
+  </si>
+  <si>
+    <t>修改施工车辆信息</t>
+  </si>
+  <si>
+    <t>1. 点击【配置信息管理】-&gt;【施工车辆管理】
+2. 找到待修改的施工车辆，点击【编辑】
+3. 修改该施工车辆的信息之后，点击【保存】</t>
+  </si>
+  <si>
+    <t>删除施工车辆</t>
+  </si>
+  <si>
+    <t>1. 点击【配置信息管理】-&gt;【施工车辆管理】
+2. 找到待删除的施工车辆，点击【删除】</t>
+  </si>
+  <si>
+    <t>列表中无法找到该施工车辆</t>
+  </si>
+  <si>
+    <t>在列表中找到该施工车辆，该车辆的信息已被修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击【配置信息管理】-&gt;【施工车辆管理】-&gt;【增加人员】
+2. 输入施工车辆的车号、行驶证、司机和司机的驾照等信息，点击【保存信息】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印制上刊确认数据列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印制上刊确认数据搜索过滤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【上刊管理】-&gt;【印制上刊确认汇总】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击【上刊管理】-&gt;【印制上刊确认汇总】
+2. 顶部输入过滤条件和搜索内容，如上刊状态、印制公司、上刊公司和广告内容等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到符合过滤搜索条件的上刊车辆列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到全部上刊车辆列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刊数据列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刊数据搜索过滤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【下刊管理】-&gt;【下刊数据汇总】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到全部下刊车辆列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击【下刊管理】-&gt;【下刊数据汇总】
+2. 顶部输入过滤条件和搜索内容，如下刊类型、印制公司、上刊公司、派工单编号等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【返修管理】-&gt; 【上刊返修明细汇总】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刊返修明细汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到上刊返修车辆列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【返修管理】-&gt; 【上刊印制修补单】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到上刊印制修补单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刊质量问题返修单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刊质量问题返修单的业务流程处理；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建上刊质量问题返修单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产运营部登录，点击【上下刊检查】-&gt;【上刊检查单汇总】，选择检查不合格的车辆，点击【生成质量问题返修单】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上刊印制修补单列表中可以看到新生成的返修单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 生产运营部登录，点击【上下刊检查】-&gt;【上刊检查单汇总】，选择检查不合格的车辆，点击【生成质量问题返修单】
+2. 生产运营部登录，点击【待办事项】-&gt;【上刊印制修补单】，选择相应的修补单，点击【处理】，核实信息无误，点击【申请审批】
+3. 施工单位登录，点击【待办事项】-&gt;【上刊印制修补单】，选择相应的修补单，点击【处理】，点击【同意】
+4. 施工单位完成修补工作之后，登录平台，点击【待办事项】-&gt;【上刊印制修补单】，选择相应的修补单，点击【处理】，填写修补完成日期、修补版面、修补面积、修补费用等，点击【同意】
+5.  生产运营部登录，点击【待办事项】-&gt;【上刊印制修补单】，选择相应的修补单，点击【处理】，核实信息无误，点击【同意】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刊返修明细汇总</t>
+  </si>
+  <si>
+    <t>点击【返修管理】-&gt; 【下刊返修明细汇总】</t>
+  </si>
+  <si>
+    <t>可以看到下刊返修车辆列表</t>
+  </si>
+  <si>
+    <t>下刊质量问题返修单列表</t>
+  </si>
+  <si>
+    <t>生产运营部登录，点击【上下刊检查】-&gt;【下刊检查单汇总】，选择检查不合格的车辆，点击【生成质量问题返修单】</t>
+  </si>
+  <si>
+    <t>点击【返修管理】-&gt; 【下刊问题返修单】</t>
+  </si>
+  <si>
+    <t>可以看到下刊问题返修单列表</t>
+  </si>
+  <si>
+    <t>在下刊问题返修单列表中可以看到新生成的返修单</t>
+  </si>
+  <si>
+    <t>新建下刊质量问题返修单</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 生产运营部登录，点击【上下刊检查】-&gt;【下刊检查单汇总】，选择检查不合格的车辆，点击【生成质量问题返修单】
+2. 生产运营部登录，点击【待办事项】-&gt;【下刊问题返修单】，选择相应的修补单，点击【处理】，核实信息无误，点击【申请审批】
+3. 下刊施工单位登录，点击【待办事项】-&gt;【下刊问题返修单】，选择相应的修补单，点击【处理】，点击【同意】
+4. 下刊施工单位完成修补工作之后，登录平台，点击【待办事项】-&gt;【下刊问题返修单】，选择相应的修补单，点击【处理】，填写修补完成日期、修补版面、修补面积、修补费用等，点击【同意】
+5.  生产运营部登录，点击【待办事项】-&gt;【下刊问题返修单】，选择相应的修补单，点击【处理】，核实信息无误，点击【同意】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效考核表列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【配置信息管理】-&gt;【绩效考核表】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到上刊印制、上刊施工、下刊印制、下刊施工的绩效考核项列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加绩效考核项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在列表中看到新增的考核项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改绩效考核项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击【配置信息管理】-&gt;【绩效考核表】-&gt;【新建】
+2. 输入考核项和权重等信息，点击【保存信息】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击【配置信息管理】-&gt;【绩效考核表】
+2. 选择需要修改的考核项，点击【编辑】
+3.修改信息之后，点击【保存信息】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看到改考核项内容已经被修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除绩效考核项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击【配置信息管理】-&gt;【绩效考核表】
+2. 选择需要删除的考核项，点击【删除】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在列表中看不到该考核项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印制面积对应表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刊费用表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料规格表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印制上刊比例表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料比例表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刊比例表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【配置信息管理】-&gt;【印制面积配置表】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到各车辆类型上下刊对应的印制面积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【配置信息管理】-&gt;【施工费用配置表】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到各车辆类型上下刊对应的费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【配置信息管理】-&gt;【上刊分配比例配置表】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【配置信息管理】-&gt;【下刊分配比例配置表】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到分配到各个公司的上刊印制、上刊施工的比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到分配到各个公司的下刊印制、下刊施工的比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【原材料管理】-&gt; 【原材料管理】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到原材料厂家、名称和规格列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料增删改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击【原材料管理】-&gt; 【原材料管理】
+2. 通过点击【新建】，【修改】，【删除】来增改删原材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到新增的、被修改的材料或者材料从列表中被删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加施工人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击【配置信息管理】-&gt;【施工人员管理】-&gt;【增加人员】
+2. 输入施工人员的公司、姓名、用户名、电话等信息，点击【保存】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在施工人员列表中可以看到新增的施工人员
+施工人员可以使用创建的用户名密码登录广告施工管理助手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2942,7 +3464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3115,6 +3637,27 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3595,10 +4138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3608,14 +4151,14 @@
     <col min="3" max="3" width="20.109375" style="37" customWidth="1"/>
     <col min="4" max="4" width="29.77734375" style="51" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="43.44140625" style="8" customWidth="1"/>
     <col min="7" max="7" width="28.109375" style="8" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>194</v>
@@ -3636,105 +4179,105 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="75" t="s">
+      <c r="A2" s="70" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="82" t="s">
         <v>283</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>349</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="C3" s="61"/>
+      <c r="A3" s="71"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="38"/>
       <c r="E3" s="8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="302.39999999999998" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="C4" s="74"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="331.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="38" t="s">
         <v>350</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="C5" s="75" t="s">
+      <c r="A5" s="71"/>
+      <c r="C5" s="82" t="s">
         <v>284</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>351</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="C6" s="61"/>
+      <c r="A6" s="71"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="38"/>
       <c r="E6" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="71"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="38" t="s">
         <v>352</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="71"/>
       <c r="C8" s="30" t="s">
         <v>285</v>
       </c>
@@ -3742,447 +4285,459 @@
         <v>353</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="71"/>
       <c r="C9" s="31" t="s">
         <v>286</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="C10" s="75" t="s">
+      <c r="A10" s="71"/>
+      <c r="C10" s="82" t="s">
         <v>287</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>354</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="71"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="38"/>
       <c r="E11" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="360" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="C12" s="74"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="374.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="71"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="38" t="s">
         <v>355</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="C13" s="72" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="C13" s="79" t="s">
         <v>288</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>356</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="C14" s="73"/>
+      <c r="A14" s="71"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="38"/>
       <c r="E14" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="G14" s="59" t="s">
         <v>498</v>
       </c>
-      <c r="F14" s="57" t="s">
-        <v>501</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>502</v>
-      </c>
     </row>
     <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="C15" s="82"/>
+      <c r="A15" s="71"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="38" t="s">
         <v>357</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F15" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F15" s="57" t="s">
-        <v>503</v>
-      </c>
       <c r="G15" s="57" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="C16" s="65" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="71"/>
+      <c r="C16" s="72" t="s">
         <v>289</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>358</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="C17" s="66"/>
+        <v>644</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="38"/>
       <c r="E17" s="8" t="s">
-        <v>505</v>
+        <v>645</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>446</v>
-      </c>
-      <c r="C18" s="72" t="s">
+      <c r="A18" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="79" t="s">
         <v>290</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>359</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G18" s="57" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="C19" s="73"/>
+      <c r="A19" s="75"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="38"/>
       <c r="E19" s="8" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="144" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="C20" s="74"/>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="38" t="s">
         <v>360</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="C21" s="72" t="s">
+      <c r="A21" s="75"/>
+      <c r="C21" s="79" t="s">
         <v>291</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>361</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="C22" s="73"/>
+      <c r="A22" s="75"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="38"/>
       <c r="E22" s="8" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="C23" s="74"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="75"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="38" t="s">
         <v>362</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="C24" s="72" t="s">
+      <c r="A24" s="75"/>
+      <c r="C24" s="79" t="s">
         <v>292</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>363</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G24" s="57" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="C25" s="73"/>
+      <c r="A25" s="75"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="38"/>
       <c r="E25" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="C26" s="74"/>
+      <c r="A26" s="75"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="38" t="s">
         <v>364</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="C27" s="72" t="s">
+      <c r="A27" s="75"/>
+      <c r="C27" s="79" t="s">
         <v>293</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>365</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G27" s="57" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="187.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="C28" s="74"/>
+      <c r="A28" s="75"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="39" t="s">
         <v>366</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="C29" s="72" t="s">
+      <c r="A29" s="75"/>
+      <c r="C29" s="79" t="s">
         <v>294</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>367</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F29" s="57" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G29" s="57" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="C30" s="74"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="75"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="39" t="s">
         <v>368</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="C31" s="72" t="s">
+      <c r="A31" s="75"/>
+      <c r="C31" s="79" t="s">
         <v>295</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>369</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G31" s="57" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="230.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
-      <c r="C32" s="74"/>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A32" s="75"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="39" t="s">
         <v>370</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="C33" s="72" t="s">
+    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="75"/>
+      <c r="C33" s="79" t="s">
         <v>296</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>371</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G33" s="59" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
-      <c r="C34" s="73"/>
+      <c r="A34" s="75"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="38"/>
       <c r="E34" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F34" s="57" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="C35" s="74"/>
+      <c r="A35" s="75"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="38" t="s">
         <v>372</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F35" s="57" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G35" s="57" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
+      <c r="A36" s="75"/>
       <c r="C36" s="32" t="s">
         <v>297</v>
       </c>
@@ -4190,748 +4745,1365 @@
         <v>373</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F36" s="57" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="C37" s="72" t="s">
+      <c r="A37" s="75"/>
+      <c r="C37" s="79" t="s">
         <v>298</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>374</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="201.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
-      <c r="C38" s="74"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="216" x14ac:dyDescent="0.25">
+      <c r="A38" s="75"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="38" t="s">
         <v>375</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="C39" s="32" t="s">
+      <c r="A39" s="75"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="76"/>
+      <c r="C40" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D40" s="38" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+      <c r="E40" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="C41" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="75"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="75"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="75"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="75"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="75"/>
+      <c r="C46" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="75"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40" t="s">
+        <v>674</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="76"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="C49" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="288" x14ac:dyDescent="0.25">
+      <c r="A50" s="75"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="75"/>
+      <c r="C51" s="79" t="s">
+        <v>303</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="288" x14ac:dyDescent="0.25">
+      <c r="A52" s="76"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="74" t="s">
+        <v>446</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="75"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="76"/>
+      <c r="C55" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="74" t="s">
         <v>447</v>
       </c>
-      <c r="C40" s="72" t="s">
-        <v>300</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="40" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
-      <c r="C42" s="72" t="s">
-        <v>301</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="40" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
+      <c r="C56" s="83" t="s">
+        <v>306</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="76"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="38" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="74" t="s">
         <v>448</v>
       </c>
-      <c r="C44" s="72" t="s">
-        <v>302</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="68"/>
-      <c r="C46" s="72" t="s">
-        <v>303</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
+      <c r="C58" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="76"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="38" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="F48" s="8" t="s">
+      <c r="C60" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>578</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="G49" s="8" t="s">
+      <c r="F60" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="75"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="75"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="8" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="C50" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="G50" s="8" t="s">
+      <c r="F62" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="75"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="8" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="67" t="s">
+      <c r="F63" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="84"/>
+      <c r="C64" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="84"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="84"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="84"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A68" s="84"/>
+      <c r="C68" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A69" s="85"/>
+      <c r="C69" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="77" t="s">
         <v>450</v>
       </c>
-      <c r="C51" s="76" t="s">
-        <v>306</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="38" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
+      <c r="C70" s="82" t="s">
+        <v>312</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="78"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="78"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="78"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="75"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="42" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="75"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A76" s="76"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="62"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="74" t="s">
         <v>451</v>
       </c>
-      <c r="C53" s="76" t="s">
-        <v>307</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="38" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A55" s="67" t="s">
+      <c r="C79" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="75"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="75"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="75"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="75"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="75"/>
+      <c r="C84" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="84" x14ac:dyDescent="0.25">
+      <c r="A85" s="76"/>
+      <c r="C85" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="62"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="62"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A88" s="62"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="62"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="62"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="62"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="62"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="62"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="62"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="62"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A96" s="62"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A97" s="62"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A98" s="62"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A99" s="62"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G99" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="A100" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="C55" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
-      <c r="C56" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
-      <c r="C57" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="C58" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="D58" s="42" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="70" t="s">
+      <c r="C100" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="E100" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A101" s="61"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A102" s="61"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="67" t="s">
+        <v>707</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A103" s="77" t="s">
         <v>453</v>
       </c>
-      <c r="C59" s="75" t="s">
-        <v>312</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="68"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="43" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="68"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="42" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="68"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="43" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="43" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="67" t="s">
+      <c r="C103" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103" s="38" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A104" s="78"/>
+      <c r="C104" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="D104" s="38" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A105" s="78"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="78"/>
+      <c r="C106" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D106" s="44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="78"/>
+      <c r="C107" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A108" s="78"/>
+      <c r="C108" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="54"/>
+      <c r="C109" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D109" s="45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="54"/>
+      <c r="C110" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A111" s="79" t="s">
         <v>454</v>
       </c>
-      <c r="C64" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="68"/>
-      <c r="C65" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="84" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
-      <c r="C66" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A67" s="53" t="s">
+      <c r="C111" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" s="43" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A112" s="80"/>
+      <c r="C112" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A113" s="81"/>
+      <c r="C113" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D113" s="38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A114" s="79" t="s">
         <v>455</v>
       </c>
-      <c r="C67" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A68" s="70" t="s">
+      <c r="C114" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D114" s="32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A115" s="80"/>
+      <c r="C115" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="D115" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A116" s="81"/>
+      <c r="C116" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D116" s="32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="32" t="s">
         <v>456</v>
       </c>
-      <c r="C68" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="C69" s="79" t="s">
-        <v>318</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="38" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="C71" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="D71" s="44" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="C72" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
-      <c r="C73" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="D73" s="32" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="C74" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
-      <c r="C75" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="D75" s="31" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A76" s="72" t="s">
+      <c r="C117" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D117" s="38" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="396" x14ac:dyDescent="0.25">
+      <c r="A118" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="C76" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="D76" s="43" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A77" s="73"/>
-      <c r="C77" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="D77" s="38" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A78" s="74"/>
-      <c r="C78" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A79" s="72" t="s">
+      <c r="C118" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="288" x14ac:dyDescent="0.25">
+      <c r="A119" s="80"/>
+      <c r="C119" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D119" s="46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A120" s="81"/>
+      <c r="C120" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D120" s="38" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A121" s="74" t="s">
         <v>458</v>
       </c>
-      <c r="C79" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="D79" s="32" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A80" s="73"/>
-      <c r="C80" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="D80" s="32" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A81" s="74"/>
-      <c r="C81" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="D81" s="32" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="32" t="s">
+      <c r="C121" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A122" s="75"/>
+      <c r="C122" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D122" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="192" x14ac:dyDescent="0.25">
+      <c r="A123" s="75"/>
+      <c r="C123" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A124" s="75"/>
+      <c r="C124" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="D124" s="41" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A125" s="76"/>
+      <c r="C125" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="D125" s="38" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="96" x14ac:dyDescent="0.25">
+      <c r="A126" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="C82" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="396" x14ac:dyDescent="0.25">
-      <c r="A83" s="75" t="s">
+      <c r="C126" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D126" s="38" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="34"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="68" t="s">
         <v>460</v>
       </c>
-      <c r="C83" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="D83" s="46" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="288" x14ac:dyDescent="0.25">
-      <c r="A84" s="73"/>
-      <c r="C84" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="D84" s="46" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A85" s="74"/>
-      <c r="C85" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="D85" s="38" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A86" s="67" t="s">
-        <v>461</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A87" s="68"/>
-      <c r="C87" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="D87" s="38" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="192" x14ac:dyDescent="0.25">
-      <c r="A88" s="68"/>
-      <c r="C88" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="48" x14ac:dyDescent="0.25">
-      <c r="A89" s="68"/>
-      <c r="C89" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="D89" s="41" t="s">
+      <c r="C128" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="D128" s="47" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
-      <c r="C90" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="D90" s="38" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="68"/>
+      <c r="C129" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D129" s="48" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="96" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="D91" s="38" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="68"/>
+      <c r="C130" s="83" t="s">
+        <v>342</v>
+      </c>
+      <c r="D130" s="44" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="61" t="s">
-        <v>463</v>
-      </c>
-      <c r="C93" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="D93" s="47" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="68"/>
+      <c r="C131" s="87"/>
+      <c r="D131" s="44" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
-      <c r="C94" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="D94" s="48" t="s">
+    <row r="132" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A132" s="68"/>
+      <c r="C132" s="88"/>
+      <c r="D132" s="43" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
-      <c r="C95" s="76" t="s">
-        <v>342</v>
-      </c>
-      <c r="D95" s="44" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="68"/>
+      <c r="C133" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="D133" s="44" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
-      <c r="C96" s="80"/>
-      <c r="D96" s="44" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="68"/>
+      <c r="C134" s="87"/>
+      <c r="D134" s="44" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="43" t="s">
+    <row r="135" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A135" s="68"/>
+      <c r="C135" s="88"/>
+      <c r="D135" s="43" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="61"/>
-      <c r="C98" s="76" t="s">
-        <v>343</v>
-      </c>
-      <c r="D98" s="44" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="68"/>
+      <c r="C136" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="D136" s="44" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
-      <c r="C99" s="80"/>
-      <c r="D99" s="44" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="68"/>
+      <c r="C137" s="87"/>
+      <c r="D137" s="44" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="43" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="68"/>
+      <c r="C138" s="88"/>
+      <c r="D138" s="44" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="C101" s="76" t="s">
-        <v>344</v>
-      </c>
-      <c r="D101" s="44" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="68"/>
+      <c r="C139" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="D139" s="44" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="C102" s="80"/>
-      <c r="D102" s="44" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="68"/>
+      <c r="C140" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="D140" s="44" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="44" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="68"/>
+      <c r="C141" s="80"/>
+      <c r="D141" s="44" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
-      <c r="C104" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="D104" s="44" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="68"/>
+      <c r="C142" s="80"/>
+      <c r="D142" s="44" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
-      <c r="C105" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D105" s="44" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="68"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="44" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="44" t="s">
+    <row r="144" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A144" s="68"/>
+      <c r="C144" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D144" s="49" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
-      <c r="C107" s="73"/>
-      <c r="D107" s="44" t="s">
+    <row r="145" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A145" s="69"/>
+      <c r="C145" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="D145" s="50" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="44" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
-      <c r="C109" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="D109" s="49" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A110" s="62"/>
-      <c r="C110" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="D110" s="50" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="116" spans="4:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="D116" s="52"/>
+    <row r="151" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D151" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -4946,36 +6118,36 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="C136:C138"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C50"/>
     <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A93:A110"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A128:A145"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="A18:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="A18:A40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4987,8 +6159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A74" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E79" sqref="C74:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -5022,7 +6194,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.35">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="90" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="25">
@@ -5042,7 +6214,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.35">
-      <c r="A3" s="83"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="25">
         <v>2</v>
       </c>
@@ -5060,7 +6232,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.35">
-      <c r="A4" s="83"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="25">
         <v>3</v>
       </c>
@@ -5078,7 +6250,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="259.2" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="25">
         <v>4</v>
       </c>
@@ -5096,7 +6268,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="90" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="25">
@@ -5116,7 +6288,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="25">
         <v>6</v>
       </c>
@@ -5134,7 +6306,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="25">
         <v>7</v>
       </c>
@@ -5152,7 +6324,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="87.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="90" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="25">
@@ -5172,7 +6344,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="25">
         <v>9</v>
       </c>
@@ -5190,7 +6362,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A11" s="83"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="25">
         <v>10</v>
       </c>
@@ -5208,7 +6380,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A12" s="83"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="25">
         <v>11</v>
       </c>
@@ -5226,7 +6398,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A13" s="83"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="25">
         <v>12</v>
       </c>
@@ -5244,7 +6416,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A14" s="83"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="25">
         <v>13</v>
       </c>
@@ -5262,7 +6434,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A15" s="83"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="25">
         <v>14</v>
       </c>
@@ -5280,7 +6452,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A16" s="83"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="25">
         <v>15</v>
       </c>
@@ -5298,7 +6470,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A17" s="83"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="25">
         <v>16</v>
       </c>
@@ -5316,7 +6488,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A18" s="83"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="25">
         <v>17</v>
       </c>
@@ -5334,7 +6506,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="90" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="25">
@@ -5354,7 +6526,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A20" s="83"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="25">
         <v>19</v>
       </c>
@@ -5372,7 +6544,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="90" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="25">
@@ -5392,7 +6564,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A22" s="83"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="25">
         <v>21</v>
       </c>
@@ -5410,7 +6582,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A23" s="83"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="25">
         <v>22</v>
       </c>
@@ -5428,7 +6600,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A24" s="83"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="25">
         <v>23</v>
       </c>
@@ -5446,7 +6618,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A25" s="83"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="25">
         <v>24</v>
       </c>
@@ -5464,7 +6636,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.35">
-      <c r="A26" s="83"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="25">
         <v>25</v>
       </c>
@@ -5482,7 +6654,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A27" s="83"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="25">
         <v>26</v>
       </c>
@@ -5500,7 +6672,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A28" s="83"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="25">
         <v>27</v>
       </c>
@@ -5518,7 +6690,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A29" s="83"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="25">
         <v>28</v>
       </c>
@@ -5536,7 +6708,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A30" s="83"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="25">
         <v>29</v>
       </c>
@@ -5554,7 +6726,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A31" s="83"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="25">
         <v>30</v>
       </c>
@@ -5572,7 +6744,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A32" s="83"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="25">
         <v>31</v>
       </c>
@@ -5590,7 +6762,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A33" s="83"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="25">
         <v>32</v>
       </c>
@@ -5608,7 +6780,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A34" s="83"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="25">
         <v>33</v>
       </c>
@@ -5626,7 +6798,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A35" s="83"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="25">
         <v>34</v>
       </c>
@@ -5644,7 +6816,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A36" s="83"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="25">
         <v>35</v>
       </c>
@@ -5662,7 +6834,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A37" s="83"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="25">
         <v>36</v>
       </c>
@@ -5680,7 +6852,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A38" s="83"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="25">
         <v>37</v>
       </c>
@@ -5698,7 +6870,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A39" s="83"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="25">
         <v>38</v>
       </c>
@@ -5716,7 +6888,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A40" s="83"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="25">
         <v>39</v>
       </c>
@@ -5734,7 +6906,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A41" s="83"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="25">
         <v>40</v>
       </c>
@@ -5752,7 +6924,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A42" s="83" t="s">
+      <c r="A42" s="90" t="s">
         <v>33</v>
       </c>
       <c r="B42" s="25">
@@ -5772,7 +6944,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A43" s="83"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="25">
         <v>42</v>
       </c>
@@ -5790,7 +6962,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A44" s="83"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="25">
         <v>43</v>
       </c>
@@ -5808,7 +6980,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A45" s="83"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="25">
         <v>44</v>
       </c>
@@ -5826,7 +6998,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A46" s="83" t="s">
+      <c r="A46" s="90" t="s">
         <v>115</v>
       </c>
       <c r="B46" s="25">
@@ -5846,7 +7018,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A47" s="83"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="25">
         <v>46</v>
       </c>
@@ -5864,7 +7036,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A48" s="83"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="25">
         <v>47</v>
       </c>
@@ -5882,7 +7054,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A49" s="83"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="25">
         <v>48</v>
       </c>
@@ -5900,7 +7072,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="90" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="25">
@@ -5920,7 +7092,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A51" s="83"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="25">
         <v>50</v>
       </c>
@@ -5938,7 +7110,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A52" s="83"/>
+      <c r="A52" s="90"/>
       <c r="B52" s="25">
         <v>51</v>
       </c>
@@ -5956,7 +7128,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A53" s="83"/>
+      <c r="A53" s="90"/>
       <c r="B53" s="25">
         <v>52</v>
       </c>
@@ -5974,7 +7146,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A54" s="83"/>
+      <c r="A54" s="90"/>
       <c r="B54" s="25">
         <v>53</v>
       </c>
@@ -5992,7 +7164,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A55" s="83"/>
+      <c r="A55" s="90"/>
       <c r="B55" s="25">
         <v>54</v>
       </c>
@@ -6010,7 +7182,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A56" s="83"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="25">
         <v>55</v>
       </c>
@@ -6028,7 +7200,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A57" s="83"/>
+      <c r="A57" s="90"/>
       <c r="B57" s="25">
         <v>56</v>
       </c>
@@ -6046,7 +7218,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A58" s="83"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="25">
         <v>57</v>
       </c>
@@ -6064,7 +7236,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A59" s="83"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="25">
         <v>58</v>
       </c>
@@ -6082,7 +7254,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="90" t="s">
         <v>45</v>
       </c>
       <c r="B60" s="25">
@@ -6102,7 +7274,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A61" s="83"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="25">
         <v>60</v>
       </c>
@@ -6120,7 +7292,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A62" s="83"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="25">
         <v>61</v>
       </c>
@@ -6138,7 +7310,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A63" s="83"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="25">
         <v>62</v>
       </c>
@@ -6156,7 +7328,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A64" s="83"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="25">
         <v>63</v>
       </c>
@@ -6174,7 +7346,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A65" s="83"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="25">
         <v>64</v>
       </c>
@@ -6192,7 +7364,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A66" s="83"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="25">
         <v>65</v>
       </c>
@@ -6210,7 +7382,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A67" s="83"/>
+      <c r="A67" s="90"/>
       <c r="B67" s="25">
         <v>66</v>
       </c>
@@ -6228,7 +7400,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A68" s="83"/>
+      <c r="A68" s="90"/>
       <c r="B68" s="25">
         <v>67</v>
       </c>
@@ -6246,7 +7418,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A69" s="83"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="25">
         <v>68</v>
       </c>
@@ -6264,7 +7436,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="93.6" x14ac:dyDescent="0.35">
-      <c r="A70" s="83"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="25">
         <v>69</v>
       </c>
@@ -6282,7 +7454,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="93.6" x14ac:dyDescent="0.35">
-      <c r="A71" s="83"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="25">
         <v>70</v>
       </c>
@@ -6300,7 +7472,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="93.6" x14ac:dyDescent="0.35">
-      <c r="A72" s="83"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="25">
         <v>71</v>
       </c>
@@ -6318,7 +7490,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="93.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="83"/>
+      <c r="A73" s="90"/>
       <c r="B73" s="25">
         <v>72</v>
       </c>
@@ -6336,7 +7508,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A74" s="83" t="s">
+      <c r="A74" s="90" t="s">
         <v>56</v>
       </c>
       <c r="B74" s="25">
@@ -6356,7 +7528,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A75" s="83"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="25">
         <v>74</v>
       </c>
@@ -6374,7 +7546,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="73.2" x14ac:dyDescent="0.35">
-      <c r="A76" s="83"/>
+      <c r="A76" s="90"/>
       <c r="B76" s="25">
         <v>75</v>
       </c>
@@ -6392,7 +7564,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A77" s="83"/>
+      <c r="A77" s="90"/>
       <c r="B77" s="25">
         <v>76</v>
       </c>
@@ -6410,7 +7582,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="73.2" x14ac:dyDescent="0.35">
-      <c r="A78" s="83"/>
+      <c r="A78" s="90"/>
       <c r="B78" s="25">
         <v>77</v>
       </c>
@@ -6428,7 +7600,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="73.2" x14ac:dyDescent="0.35">
-      <c r="A79" s="83"/>
+      <c r="A79" s="90"/>
       <c r="B79" s="25">
         <v>78</v>
       </c>
@@ -6446,7 +7618,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="91" t="s">
         <v>59</v>
       </c>
       <c r="B80" s="25">
@@ -6466,7 +7638,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A81" s="85"/>
+      <c r="A81" s="92"/>
       <c r="B81" s="25">
         <v>80</v>
       </c>
@@ -6484,7 +7656,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="73.2" x14ac:dyDescent="0.35">
-      <c r="A82" s="86"/>
+      <c r="A82" s="93"/>
       <c r="B82" s="25">
         <v>81</v>
       </c>

--- a/文档/北巴传媒/二期测试/2测试阶段/测试用例.xlsx
+++ b/文档/北巴传媒/二期测试/2测试阶段/测试用例.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="830">
   <si>
     <t>预期结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1898,11 +1898,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>1.根据出行记录分析统计生成媒体监测数据；
-2.GPS生成媒体监测数据，如果可以拿到GPS；</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>新开撤销调整线路的处理流程；新增，撤线，变更，调整线路；</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -3166,6 +3161,526 @@
   <si>
     <t>在施工人员列表中可以看到新增的施工人员
 施工人员可以使用创建的用户名密码登录广告施工管理助手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单流程处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【原材料管理】-&gt; 【订货单】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到订货单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 生产运营部登录，点击【原材料管理】-&gt;【订货单】-&gt; 【新建】，输入印厂名称、厂家、交货时间等信息，点击【保存信息】
+2. 生产运营部登录，点击【待办事项】-&gt;【订货单】，选择相应的订货单，点击【处理】，进入详情页，核实信息后，点击【申请审批】
+3. 印厂将材料入库之后，点击【待办事项】-&gt;【订货单】，选择相应的订货单，点击【处理】，进入详情页，核实信息无误之后，点击【同意】
+4. 生产运营部登录，点击【待办事项】-&gt;【订货单】，选择相应的订货单，点击【处理】，进入详情页，核实信息后，点击【同意】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO印制上刊单使用记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【原材料管理】-&gt;【原材料使用明细】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到MO制作单使用的原材料明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料使用明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印制上刊单使用记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到印制上刊单使用的原材料明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到各个印制公司的原材料使用明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印制上刊单刷新库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO制作单刷新库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 到【原材料管理】-&gt; 【原材料库存】看一下库存明细，记录一下数据
+2. 执行一个MO制作单流程，记录使用的原材料数据
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到【原材料管理】-&gt; 【原材料库存】看一下库存明细，原材料库存已更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 到【原材料管理】-&gt; 【原材料库存】看一下库存明细，记录一下数据
+2. 执行一个印制上刊单流程，记录使用的原材料数据
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计审核单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【设计制作管理】-&gt;【设计审核单】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到设计审核单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建设计审核单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击【设计制作管理】-&gt;【设计审核单】-&gt;【新建】
+2. 输入相关信息，并上传设计稿，点击【保存设计审核单】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在列表中看到刚添加的设计审核单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆下刊异动问题列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【下刊管理】-&gt;【下刊异动问题核实】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到车辆下刊异动问题核实列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追车下刊问题列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【下刊管理】-&gt;【追车下刊】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到追车下刊单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刊异动问题核实单流程处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.施工单位登录，点击【下刊管理】-&gt;【下刊数据汇总】，选择有异动问题的车辆，点击【生成异动问题核实情况】
+2.施工单位登录，点击【待办事项】-&gt;【下刊异动问题核实】，选择相应的异动核实单，点击【处理】，进入详情页，核实信息无误，点击【申请审批】
+3.媒介登录，点击【待办事项】-&gt;【下刊异动问题核实】，选择相应的异动核实单，点击【处理】，进入详情页，填写车辆问题信息，点击【同意】
+4.生产运营部登录，点击【待办事项】-&gt;【下刊异动问题核实】，选择相应的异动核实单，点击【处理】，进入详情页，核实信息无误，点击【同意】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追车下刊单流程处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 生产运营部登录，点击【下刊管理】-&gt;【下刊数据汇总】，选择要下刊的车辆，点击【追车下刊】
+2. 生产运营部登录，点击【待办事项】-&gt;【追车下刊】，选择相应的追车下刊单，点击【处理】，进入详情页，核实信息无误，点击【申请审批】
+3. 下刊施工单位登录，点击【待办事项】-&gt;【追车下刊】，选择相应的追车下刊单，点击【处理】，进入详情页，填写下刊完成日期、下刊画面等信息，点击【同意】
+4. 媒介登录，点击【待办事项】-&gt;【追车下刊】，选择相应的追车下刊单，点击【处理】，进入详情页，填写核实日期等信息，点击【同意】
+5. 生产运营部登录，点击【待办事项】-&gt;【追车下刊】，选择相应的追车下刊单，点击【处理】，进入详情页，核实信息无误，点击【同意】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.根据出行记录分析统计生成媒体监测数据；
+2.GPS生成媒体监测数据，如果可以拿到GPS；</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆车型记录分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">点击【集团数据推介】-&gt;【车辆出车记录】，选择日期，回车确认
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示所选日期过去7天和过去30天的车辆出车记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增线路流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销线路流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更路号流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更线路归属流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线路调整流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.媒介登陆，点击【新开调流程】-&gt;【新增线路】-&gt;【新建】，填写线路相关信息之后，点击【保存线路】
+2.媒介登录，点击【待办事项】-&gt;【新增线路】，选择相应的新增线路单，点击【处理】，核实信息之后，点击【申请审批】
+3.媒介总监登录，点击【待办事项】-&gt;【新增线路】，选择相应的新增线路单，点击【处理】，核实信息之后，点击【同意】
+4.媒介登录，点击【待办事项】-&gt;【新增线路】，选择相应的新增线路单，点击【处理】，核实信息之后，点击【同意】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.媒介登陆，点击【新开调流程】-&gt;【撤销线路】-&gt;【新建】，填写线路相关信息之后，点击【保存线路】
+2.媒介登录，点击【待办事项】-&gt;【撤销线路】，选择相应的撤销线路单，点击【处理】，核实信息之后，点击【申请审批】
+3.媒介总监登录，点击【待办事项】-&gt;【撤销线路】，选择相应的撤销线路单，点击【处理】，核实信息之后，点击【同意】
+4.媒介登录，点击【待办事项】-&gt;【撤销线路】，选择相应的撤销线路单，点击【处理】，核实信息之后，点击【同意】</t>
+  </si>
+  <si>
+    <t>1.媒介登陆，点击【新开调流程】-&gt;【变更路号】-&gt;【新建】，填写线路相关信息之后，点击【保存线路】
+2.媒介登录，点击【待办事项】-&gt;【变更路号】，选择相应的变更路号单，点击【处理】，核实信息之后，点击【申请审批】
+3.媒介总监登录，点击【待办事项】-&gt;【变更路号】，选择相应的变更路号单，点击【处理】，核实信息之后，点击【同意】
+4.媒介登录，点击【待办事项】-&gt;【变更路号】，选择相应的变更路号单，点击【处理】，核实信息之后，点击【同意】</t>
+  </si>
+  <si>
+    <t>1.媒介登陆，点击【新开调流程】-&gt;【变更线路归属】-&gt;【新建】，填写线路相关信息之后，点击【保存线路】
+2.媒介登录，点击【待办事项】-&gt;【变更线路归属】，选择相应的变更线路归属单，点击【处理】，核实信息之后，点击【申请审批】
+3.媒介总监登录，点击【待办事项】-&gt;【变更线路归属】，选择相应的变更线路归属单，点击【处理】，核实信息之后，点击【同意】
+4.媒介登录，点击【待办事项】-&gt;【变更线路归属】，选择相应的变更线路归属单，点击【处理】，核实信息之后，点击【同意】</t>
+  </si>
+  <si>
+    <t>1.媒介登陆，点击【新开调流程】-&gt;【线路调整】-&gt;【新建】，填写线路相关信息之后，点击【保存线路】
+2.媒介登录，点击【待办事项】-&gt;【线路调整】，选择相应的线路调整单，点击【处理】，核实信息之后，点击【申请审批】
+3.媒介总监登录，点击【待办事项】-&gt;【线路调整】，选择相应的线路调整单，点击【处理】，核实信息之后，点击【同意】
+4.媒介登录，点击【待办事项】-&gt;【线路调整】，选择相应的线路调整单，点击【处理】，核实信息之后，点击【同意】</t>
+  </si>
+  <si>
+    <t>精拍仪扫描文档，保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.PC安装精拍仪驱动和控件，USB口连上精拍仪
+2.使用IE核心的浏览器(IE浏览器或者360浏览器)登录平台，点击【合同管理】-&gt;【合同列表】，选择一个合同，点击【编辑】，进入合同详细页，在合同补录栏，点击【合同扫描】
+3.将合同页放在精拍仪上，点击【拍照直接上传服务器】，完成一张合同页的上传。重复执行此步骤，直到把所有合同页都上传到服务器。然后点击【保存至合同信息】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到合同的扫描件图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号登录系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员使用手机号创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户能够使用手机号登陆广告施工助手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用户登录系统，点击【我的账户】-&gt;【修改密码】
+2.输入新密码2次
+3.点击【确认修改】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户能使用新密码登录广告施工助手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码找回-后台重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户能通过默认密码登录广告施工助手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.管理员后台重置用户密码为默认密码，如123456
+2.平台通知用户密码已经被重置到默认密码，可以短信通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统推送信息给特定的施工人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工人员签收消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.施工人员登录广告施工助手，点击【我的通知】-&gt;【待办理】，点击某一条系统推送的消息，上传附件，点击【签收】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工人员登录广告施工助手，点击【我的通知】-&gt;【待办理】，可以看到系统新推送的消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.登录平台，点击【配置信息管理】-&gt;【消息通知】-&gt;【新建】
+2.填写消息标题、内容，选择要推送的施工人员
+3. 点击【保存信息】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录平台，点击【配置信息管理】-&gt;【消息通知】，在列表中看到消息已被施工人员签收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刊列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.施工人员登录广告施工助手，点击【上刊管理】
+2.依次点击【未上刊】、【待审核】、【未通过】、【已上刊】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到处于各个状态的上刊单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刊单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.施工人员登录广告施工助手，点击【上刊管理】-&gt;【全部】
+2.选择一个上刊单，点击【查看详情】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到上刊单的详细内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刊单操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.施工人员登录广告施工助手，点击【上刊管理】-&gt;【未上刊】
+2.选择一个上刊单，点击【上刊登记】
+3.填写上刊信息、上传上刊照片之后，点击【上刊】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工单位登录平台，进入【待办事项】-&gt;【印制上刊确认单】，选择相应的确认单，点击【处理】，可以查看施工人员提交的上刊登记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刊列表</t>
+  </si>
+  <si>
+    <t>1.施工人员登录广告施工助手，点击【下刊管理】
+2.依次点击【未下刊】、【待审核】、【未通过】、【已下刊】</t>
+  </si>
+  <si>
+    <t>看到处于各个状态的下刊单</t>
+  </si>
+  <si>
+    <t>下刊单详情</t>
+  </si>
+  <si>
+    <t>1.施工人员登录广告施工助手，点击【下刊管理】-&gt;【全部】
+2.选择一个下刊单，点击【查看详情】</t>
+  </si>
+  <si>
+    <t>可以看到下刊单的详细内容</t>
+  </si>
+  <si>
+    <t>下刊单操作</t>
+  </si>
+  <si>
+    <t>1.施工人员登录广告施工助手，点击【下刊管理】-&gt;【未下刊】
+2.选择一个下刊单，点击【下刊登记】
+3.填写下刊信息、上传下刊照片之后，点击【下刊】</t>
+  </si>
+  <si>
+    <t>施工单位登录平台，进入【待办事项】-&gt;【印制下刊确认单】，选择相应的确认单，点击【处理】，可以查看施工人员提交的下刊登记</t>
+  </si>
+  <si>
+    <t>看到处于各个状态的检查单</t>
+  </si>
+  <si>
+    <t>检查单详情</t>
+  </si>
+  <si>
+    <t>可以看到检查单的详细内容</t>
+  </si>
+  <si>
+    <t>检查单操作</t>
+  </si>
+  <si>
+    <t>1.检查人员登录广告施工助手，点击【日常检查】
+2.依次点击【未检查】、【已检查】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查人员登录广告施工助手，点击【日常检查】-&gt;【全部】
+2.选择一个检查单，点击【查看详情】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常检查列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产运营部登录平台，进入【上下刊检查】-&gt;【日常检查】，选择相应的检查单，点击【查看】，可以查看检查人员提交的检查登记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆巡检</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产运营部登录平台，进入【车辆巡检表】，可以查看巡检人员提交的巡检登记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刊操作统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刊操作统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 施工人员登录广告施工助手，点击【统计管理】-&gt;【上刊统计】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 施工人员登录广告施工助手，点击【统计管理】-&gt;【下刊统计】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到各个上刊状态的车辆数统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常检查操作统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡检操作统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 施工人员登录广告施工助手，点击【统计管理】-&gt;【检查统计】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 施工人员登录广告施工助手，点击【统计管理】-&gt;【巡检统计】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到已检查和未检查的车辆数统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到各个上刊状态的车辆数统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同概览</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同流程图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【合同管理】-&gt;【合同列表】，合同列表中选择一个合同，点击【合同概览】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示合同的整体概况，如价格方案、MO制作单、印制上刊单的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【合同管理】-&gt;【合同列表】，合同列表中选择一个合同，点击【工单流程】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示合同各个节点信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照辅助输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查人员登录广告施工助手，点击【日常检查】
+2.选择一个检查单，点击【检查登记】
+3.填写检查信息、上传检查照片之后，点击【提交】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.巡检人员登录广告施工助手，点击【车辆巡检】-&gt;【新增巡检】
+2.填写检查信息、上传照片之后，点击【保存】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.巡检人员登录广告施工助手，点击【车辆巡检】-&gt;【新增巡检】
+2.在图片1栏位上传一张带有自编号的图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自编号输入框中自动填充了图片中读出的自编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像是否包含车牌号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像包含广告画面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片基本信息验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户投放统计表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入确认月份累计统计表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入确认月份汇总统计表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3464,7 +3979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3557,9 +4072,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3596,12 +4108,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3659,6 +4165,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3735,6 +4256,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4138,18 +4680,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="51" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="48" customWidth="1"/>
     <col min="2" max="2" width="11.21875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" style="48" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" style="8" customWidth="1"/>
     <col min="6" max="6" width="43.44140625" style="8" customWidth="1"/>
     <col min="7" max="7" width="28.109375" style="8" customWidth="1"/>
@@ -4158,7 +4700,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>194</v>
@@ -4179,1451 +4721,1487 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>442</v>
-      </c>
-      <c r="C2" s="82" t="s">
+      <c r="A2" s="72" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>349</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="F3" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="8" t="s">
+    <row r="4" spans="1:8" ht="331.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="331.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>464</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="C5" s="82" t="s">
+      <c r="A5" s="73"/>
+      <c r="C5" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>351</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="F6" s="15" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="8" t="s">
+      <c r="G6" s="20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>479</v>
+      <c r="F7" s="52" t="s">
+        <v>478</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
+      <c r="A8" s="73"/>
       <c r="C8" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>353</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>480</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="G8" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="G8" s="56" t="s">
-        <v>482</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
+      <c r="A9" s="73"/>
       <c r="C9" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>468</v>
+      <c r="D9" s="37" t="s">
+        <v>467</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="G9" s="53" t="s">
         <v>483</v>
       </c>
-      <c r="F9" s="55" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="C10" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>490</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="374.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>528</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="C13" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>495</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>496</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="C16" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="A18" s="76" t="s">
+        <v>442</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="77"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="77"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="A21" s="77"/>
+      <c r="C21" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="77"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="77"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>525</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="A24" s="77"/>
+      <c r="C24" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>536</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="77"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="77"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="G9" s="56" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="C10" s="82" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="F10" s="55" t="s">
+      <c r="F26" s="54" t="s">
+        <v>521</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="374.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="F12" s="55" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="77"/>
+      <c r="C27" s="81" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>534</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="77"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="77"/>
+      <c r="C29" s="81" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>533</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="77"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="C13" s="79" t="s">
-        <v>288</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>497</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="C16" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
-        <v>443</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>290</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>504</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>508</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
-      <c r="C21" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>508</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="75"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>526</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
-      <c r="C24" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="F24" s="57" t="s">
+      <c r="F30" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="77"/>
+      <c r="C31" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="G24" s="57" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>523</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="75"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>522</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="C27" s="79" t="s">
-        <v>293</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>535</v>
-      </c>
-      <c r="G27" s="57" t="s">
+      <c r="F31" s="54" t="s">
+        <v>533</v>
+      </c>
+      <c r="G31" s="54" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="187.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="75"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
-      <c r="C29" s="79" t="s">
-        <v>294</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>534</v>
-      </c>
-      <c r="G29" s="57" t="s">
+    <row r="32" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A32" s="77"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>540</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="187.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
-      <c r="C31" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>534</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>541</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
-      <c r="C33" s="79" t="s">
+      <c r="A33" s="77"/>
+      <c r="C33" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="37" t="s">
         <v>371</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="F33" s="54" t="s">
         <v>542</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="G33" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="G33" s="59" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="77"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="8" t="s">
+      <c r="F34" s="54" t="s">
         <v>545</v>
       </c>
-      <c r="F34" s="57" t="s">
+      <c r="G34" s="56" t="s">
         <v>546</v>
       </c>
-      <c r="G34" s="59" t="s">
+    </row>
+    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="77"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="F35" s="54" t="s">
         <v>548</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="G35" s="54" t="s">
         <v>549</v>
       </c>
-      <c r="G35" s="57" t="s">
-        <v>550</v>
-      </c>
     </row>
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
+      <c r="A36" s="77"/>
       <c r="C36" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="37" t="s">
         <v>373</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="F36" s="54" t="s">
         <v>551</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="G36" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="G36" s="8" t="s">
+    </row>
+    <row r="37" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="77"/>
+      <c r="C37" s="81" t="s">
+        <v>298</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
-      <c r="C37" s="79" t="s">
-        <v>298</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="G37" s="8" t="s">
+    </row>
+    <row r="38" spans="1:7" ht="216" x14ac:dyDescent="0.25">
+      <c r="A38" s="77"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="216" x14ac:dyDescent="0.25">
-      <c r="A38" s="75"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="E38" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>558</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="75"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="38"/>
+      <c r="A39" s="77"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="76"/>
+      <c r="A40" s="78"/>
       <c r="C40" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="37" t="s">
         <v>376</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="76" t="s">
+        <v>443</v>
+      </c>
+      <c r="C41" s="81" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="74" t="s">
-        <v>444</v>
-      </c>
-      <c r="C41" s="79" t="s">
-        <v>300</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="E41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="G41" s="8" t="s">
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="77"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="75"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="8" t="s">
+      <c r="G42" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="77"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="77"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="G43" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>664</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="75"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>665</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="40"/>
+      <c r="A45" s="77"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="G45" s="8" t="s">
+    </row>
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="77"/>
+      <c r="C46" s="81" t="s">
+        <v>301</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="C46" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="E46" s="8" t="s">
+      <c r="F46" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="77"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="G46" s="8" t="s">
+      <c r="G47" s="8" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40" t="s">
+    <row r="48" spans="1:7" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="78"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>674</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="76"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>675</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="74" t="s">
-        <v>445</v>
-      </c>
-      <c r="C49" s="79" t="s">
+      <c r="A49" s="76" t="s">
+        <v>444</v>
+      </c>
+      <c r="C49" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="37" t="s">
         <v>381</v>
       </c>
       <c r="E49" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="G49" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="G49" s="8" t="s">
+    </row>
+    <row r="50" spans="1:7" ht="288" x14ac:dyDescent="0.25">
+      <c r="A50" s="77"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="288" x14ac:dyDescent="0.25">
-      <c r="A50" s="75"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="E50" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>562</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>563</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="75"/>
-      <c r="C51" s="79" t="s">
+      <c r="A51" s="77"/>
+      <c r="C51" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="39" t="s">
         <v>383</v>
       </c>
       <c r="E51" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="288" x14ac:dyDescent="0.25">
+      <c r="A52" s="78"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F52" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="G51" s="8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="288" x14ac:dyDescent="0.25">
-      <c r="A52" s="76"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>568</v>
-      </c>
       <c r="G52" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="74" t="s">
-        <v>446</v>
+      <c r="A53" s="76" t="s">
+        <v>445</v>
       </c>
       <c r="C53" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="37" t="s">
         <v>385</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G53" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="77"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="75"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>576</v>
-      </c>
-    </row>
     <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="76"/>
+      <c r="A55" s="78"/>
       <c r="C55" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="37" t="s">
         <v>386</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="74" t="s">
+      <c r="A56" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="C56" s="85" t="s">
+        <v>306</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="78"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="C56" s="83" t="s">
-        <v>306</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="76"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="38" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="74" t="s">
+      <c r="C58" s="85" t="s">
+        <v>307</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="216" x14ac:dyDescent="0.25">
+      <c r="A59" s="78"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="76" t="s">
         <v>448</v>
-      </c>
-      <c r="C58" s="83" t="s">
-        <v>307</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="76"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="38" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="74" t="s">
-        <v>449</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="D60" s="38" t="s">
-        <v>578</v>
+      <c r="D60" s="37" t="s">
+        <v>577</v>
       </c>
       <c r="E60" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="77"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="77"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F62" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="259.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="75"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="8" t="s">
+    </row>
+    <row r="63" spans="1:7" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="77"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="G62" s="8" t="s">
+      <c r="F63" s="8" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="259.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="75"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>591</v>
-      </c>
       <c r="G63" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
+      <c r="A64" s="86"/>
       <c r="C64" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="37" t="s">
         <v>390</v>
       </c>
       <c r="E64" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="G64" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="G64" s="8" t="s">
+    </row>
+    <row r="65" spans="1:7" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="86"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="8" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="259.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="84"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="8" t="s">
+      <c r="F65" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="G65" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="86"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="G65" s="8" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="8" t="s">
+      <c r="F66" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="G66" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="G66" s="8" t="s">
+    </row>
+    <row r="67" spans="1:7" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="86"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="8" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="259.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="84"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="8" t="s">
+      <c r="F67" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>601</v>
-      </c>
       <c r="G67" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A68" s="84"/>
+      <c r="A68" s="86"/>
       <c r="C68" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="D68" s="40" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A69" s="85"/>
+      <c r="A69" s="87"/>
       <c r="C69" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D69" s="41" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="77" t="s">
+      <c r="A70" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="C70" s="84" t="s">
+        <v>312</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="80"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="80"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="80"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="77"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="77"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A76" s="78"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="59"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="59"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="76" t="s">
         <v>450</v>
-      </c>
-      <c r="C70" s="82" t="s">
-        <v>312</v>
-      </c>
-      <c r="D70" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="78"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="78"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="78"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="75"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="42" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="75"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="43" t="s">
-        <v>395</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="76"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="74" t="s">
-        <v>451</v>
       </c>
       <c r="C79" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="D79" s="43" t="s">
+      <c r="D79" s="42" t="s">
         <v>397</v>
       </c>
       <c r="E79" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="77"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="F79" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="G79" s="8" t="s">
+      <c r="F80" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="75"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="G80" s="8" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="77"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="8" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="75"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="8" t="s">
+      <c r="F81" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="G81" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="G81" s="8" t="s">
+    </row>
+    <row r="82" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="77"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="8" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="75"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="8" t="s">
+      <c r="F82" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="G82" s="8" t="s">
+    </row>
+    <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="77"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="8" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="75"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="8" t="s">
+      <c r="F83" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>638</v>
-      </c>
       <c r="G83" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="75"/>
+      <c r="A84" s="77"/>
       <c r="C84" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="D84" s="43" t="s">
+      <c r="D84" s="42" t="s">
         <v>398</v>
       </c>
       <c r="E84" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="G84" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="G84" s="8" t="s">
-        <v>641</v>
-      </c>
     </row>
     <row r="85" spans="1:7" ht="84" x14ac:dyDescent="0.25">
-      <c r="A85" s="76"/>
+      <c r="A85" s="78"/>
       <c r="C85" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="43" t="s">
+      <c r="D85" s="42" t="s">
         <v>399</v>
       </c>
       <c r="E85" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="G85" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="G85" s="8" t="s">
+    </row>
+    <row r="86" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="59"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="8" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="62"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="8" t="s">
+      <c r="F86" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="F86" s="8" t="s">
+    </row>
+    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="59"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="G86" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="F87" s="8" t="s">
+      <c r="G87" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="G87" s="8" t="s">
+    </row>
+    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A88" s="59"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="8" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="62"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="8" t="s">
+      <c r="F88" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="G88" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="G88" s="8" t="s">
+    </row>
+    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="59"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="8" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="62"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="8" t="s">
+      <c r="F89" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="59"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="F89" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="G89" s="8" t="s">
+      <c r="F90" s="8" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="62"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="8" t="s">
+      <c r="G90" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="59"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="F90" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="G90" s="8" t="s">
+      <c r="F91" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="59"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="59"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="62"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="62"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="8" t="s">
+      <c r="G93" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="59"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="F93" s="8" t="s">
+    </row>
+    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="59"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G95" s="8" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="62"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="8" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="62"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>701</v>
-      </c>
-    </row>
     <row r="96" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="62"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="66" t="s">
+      <c r="A96" s="59"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="63" t="s">
         <v>57</v>
       </c>
       <c r="F96" s="17" t="s">
@@ -5634,10 +6212,10 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="66" t="s">
+      <c r="A97" s="59"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="63" t="s">
         <v>58</v>
       </c>
       <c r="F97" s="17" t="s">
@@ -5648,10 +6226,10 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A98" s="62"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="66" t="s">
+      <c r="A98" s="59"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="63" t="s">
         <v>254</v>
       </c>
       <c r="F98" s="17" t="s">
@@ -5662,10 +6240,10 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="66" t="s">
+      <c r="A99" s="59"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="63" t="s">
         <v>179</v>
       </c>
       <c r="F99" s="17" t="s">
@@ -5676,16 +6254,16 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A100" s="53" t="s">
-        <v>452</v>
+      <c r="A100" s="50" t="s">
+        <v>451</v>
       </c>
       <c r="C100" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="D100" s="38" t="s">
+      <c r="D100" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="E100" s="66" t="s">
+      <c r="E100" s="63" t="s">
         <v>255</v>
       </c>
       <c r="F100" s="17" t="s">
@@ -5696,10 +6274,10 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="66" t="s">
+      <c r="A101" s="58"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="63" t="s">
         <v>256</v>
       </c>
       <c r="F101" s="17" t="s">
@@ -5710,403 +6288,853 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="67" t="s">
+      <c r="A102" s="58"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="64" t="s">
+        <v>706</v>
+      </c>
+      <c r="F102" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="G102" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="G102" s="8" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="103" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A103" s="77" t="s">
-        <v>453</v>
+      <c r="A103" s="79" t="s">
+        <v>452</v>
       </c>
       <c r="C103" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="D103" s="38" t="s">
+      <c r="D103" s="37" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A104" s="78"/>
-      <c r="C104" s="86" t="s">
+      <c r="E103" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A104" s="80"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A105" s="80"/>
+      <c r="C105" s="88" t="s">
         <v>318</v>
       </c>
-      <c r="D104" s="38" t="s">
+      <c r="D105" s="37" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A105" s="78"/>
-      <c r="C105" s="86"/>
-      <c r="D105" s="38" t="s">
+      <c r="E105" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="A106" s="80"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A107" s="80"/>
+      <c r="C107" s="88"/>
+      <c r="D107" s="37" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="78"/>
-      <c r="C106" s="31" t="s">
+      <c r="E107" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="A108" s="80"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A109" s="80"/>
+      <c r="C109" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="D106" s="44" t="s">
+      <c r="D109" s="43" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="78"/>
-      <c r="C107" s="32" t="s">
+      <c r="E109" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="80"/>
+      <c r="C110" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="D107" s="33" t="s">
+      <c r="D110" s="33" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A108" s="78"/>
-      <c r="C108" s="33" t="s">
+    <row r="111" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A111" s="80"/>
+      <c r="C111" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="D108" s="32" t="s">
+      <c r="D111" s="32" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="54"/>
-      <c r="C109" s="31" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="51"/>
+      <c r="C112" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="D109" s="45" t="s">
+      <c r="D112" s="44" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="54"/>
-      <c r="C110" s="32" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="51"/>
+      <c r="C113" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D113" s="31" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A111" s="79" t="s">
+    <row r="114" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A114" s="81" t="s">
+        <v>453</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="D114" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A115" s="82"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="8" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A116" s="82"/>
+      <c r="C116" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="D116" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A117" s="83"/>
+      <c r="C117" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D117" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A118" s="81" t="s">
         <v>454</v>
       </c>
-      <c r="C111" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="D111" s="43" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A112" s="80"/>
-      <c r="C112" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A113" s="81"/>
-      <c r="C113" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A114" s="79" t="s">
+      <c r="C118" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D118" s="32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A119" s="82"/>
+      <c r="C119" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="D119" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A120" s="83"/>
+      <c r="C120" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D120" s="32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="C114" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="D114" s="32" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A115" s="80"/>
-      <c r="C115" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="D115" s="32" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A116" s="81"/>
-      <c r="C116" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="D116" s="32" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="32" t="s">
+      <c r="C121" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D121" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A122" s="65"/>
+      <c r="C122" s="66"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="396" x14ac:dyDescent="0.25">
+      <c r="A123" s="84" t="s">
         <v>456</v>
       </c>
-      <c r="C117" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="D117" s="38" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="396" x14ac:dyDescent="0.25">
-      <c r="A118" s="82" t="s">
+      <c r="C123" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D123" s="45" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A124" s="70"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="8" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A125" s="70"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="8" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="70"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="45"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="70"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="45"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="70"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="45"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="70"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="45"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="70"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="288" x14ac:dyDescent="0.25">
+      <c r="A131" s="82"/>
+      <c r="C131" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D131" s="45" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A132" s="82"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="45"/>
+      <c r="E132" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A133" s="83"/>
+      <c r="C133" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D133" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="A134" s="76" t="s">
         <v>457</v>
       </c>
-      <c r="C118" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="D118" s="46" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="288" x14ac:dyDescent="0.25">
-      <c r="A119" s="80"/>
-      <c r="C119" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="D119" s="46" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A120" s="81"/>
-      <c r="C120" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="D120" s="38" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A121" s="74" t="s">
+      <c r="C134" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="A135" s="77"/>
+      <c r="C135" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D135" s="37" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="192" x14ac:dyDescent="0.25">
+      <c r="A136" s="77"/>
+      <c r="C136" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="77"/>
+      <c r="C137" s="102" t="s">
+        <v>337</v>
+      </c>
+      <c r="D137" s="96" t="s">
+        <v>742</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="77"/>
+      <c r="C138" s="102"/>
+      <c r="D138" s="97"/>
+    </row>
+    <row r="139" spans="1:7" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A139" s="78"/>
+      <c r="C139" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="D139" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A140" s="68"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A141" s="68"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="37"/>
+      <c r="E141" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A142" s="68"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A143" s="68"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A144" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="C121" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D121" s="31" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A122" s="75"/>
-      <c r="C122" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="D122" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="192" x14ac:dyDescent="0.25">
-      <c r="A123" s="75"/>
-      <c r="C123" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="D123" s="31" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="48" x14ac:dyDescent="0.25">
-      <c r="A124" s="75"/>
-      <c r="C124" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="D124" s="41" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A125" s="76"/>
-      <c r="C125" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="D125" s="38" t="s">
+      <c r="C144" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D144" s="37" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="96" x14ac:dyDescent="0.25">
-      <c r="A126" s="31" t="s">
+      <c r="E144" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A145" s="70" t="s">
         <v>459</v>
       </c>
-      <c r="C126" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="D126" s="38" t="s">
+      <c r="C145" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="D145" s="98" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="34"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="68" t="s">
-        <v>460</v>
-      </c>
-      <c r="C128" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="D128" s="47" t="s">
+      <c r="E145" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F145" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="G145" s="20" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A146" s="70"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="98"/>
+      <c r="E146" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="F146" s="100" t="s">
+        <v>767</v>
+      </c>
+      <c r="G146" s="101" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A147" s="70"/>
+      <c r="C147" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D147" s="99" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="68"/>
-      <c r="C129" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="D129" s="48" t="s">
+      <c r="E147" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A148" s="70"/>
+      <c r="C148" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="D148" s="43" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="68"/>
-      <c r="C130" s="83" t="s">
-        <v>342</v>
-      </c>
-      <c r="D130" s="44" t="s">
+      <c r="E148" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A149" s="70"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="43" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="68"/>
-      <c r="C131" s="87"/>
-      <c r="D131" s="44" t="s">
+      <c r="E149" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="A150" s="70"/>
+      <c r="C150" s="90"/>
+      <c r="D150" s="42" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A132" s="68"/>
-      <c r="C132" s="88"/>
-      <c r="D132" s="43" t="s">
+      <c r="E150" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A151" s="70"/>
+      <c r="C151" s="85" t="s">
+        <v>343</v>
+      </c>
+      <c r="D151" s="43" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="68"/>
-      <c r="C133" s="83" t="s">
-        <v>343</v>
-      </c>
-      <c r="D133" s="44" t="s">
+      <c r="E151" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="70"/>
+      <c r="C152" s="89"/>
+      <c r="D152" s="43" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="68"/>
-      <c r="C134" s="87"/>
-      <c r="D134" s="44" t="s">
+      <c r="E152" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="A153" s="70"/>
+      <c r="C153" s="90"/>
+      <c r="D153" s="42" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A135" s="68"/>
-      <c r="C135" s="88"/>
-      <c r="D135" s="43" t="s">
+      <c r="E153" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="70"/>
+      <c r="C154" s="85" t="s">
+        <v>344</v>
+      </c>
+      <c r="D154" s="43" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="68"/>
-      <c r="C136" s="83" t="s">
-        <v>344</v>
-      </c>
-      <c r="D136" s="44" t="s">
+      <c r="E154" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A155" s="70"/>
+      <c r="C155" s="89"/>
+      <c r="D155" s="43" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="68"/>
-      <c r="C137" s="87"/>
-      <c r="D137" s="44" t="s">
+      <c r="E155" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="A156" s="70"/>
+      <c r="C156" s="90"/>
+      <c r="D156" s="43" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="68"/>
-      <c r="C138" s="88"/>
-      <c r="D138" s="44" t="s">
+      <c r="E156" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A157" s="70"/>
+      <c r="C157" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D157" s="43" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="68"/>
-      <c r="C139" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="D139" s="44" t="s">
+      <c r="E157" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A158" s="70"/>
+      <c r="C158" s="85" t="s">
+        <v>346</v>
+      </c>
+      <c r="D158" s="43" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="68"/>
-      <c r="C140" s="83" t="s">
-        <v>346</v>
-      </c>
-      <c r="D140" s="44" t="s">
+      <c r="E158" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A159" s="70"/>
+      <c r="C159" s="82"/>
+      <c r="D159" s="43" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="68"/>
-      <c r="C141" s="80"/>
-      <c r="D141" s="44" t="s">
+      <c r="E159" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A160" s="70"/>
+      <c r="C160" s="82"/>
+      <c r="D160" s="43" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="68"/>
-      <c r="C142" s="80"/>
-      <c r="D142" s="44" t="s">
+      <c r="E160" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A161" s="70"/>
+      <c r="C161" s="83"/>
+      <c r="D161" s="43" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="68"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="44" t="s">
+      <c r="E161" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A162" s="70"/>
+      <c r="C162" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D162" s="46" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A144" s="68"/>
-      <c r="C144" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="D144" s="49" t="s">
+    <row r="163" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A163" s="71"/>
+      <c r="C163" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="D163" s="47" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A145" s="69"/>
-      <c r="C145" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="D145" s="50" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="D151" s="52"/>
+      <c r="E163" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="E164" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D169" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
+    <mergeCell ref="D137:D138"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
@@ -6118,9 +7146,9 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="C154:C156"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C46:C48"/>
@@ -6131,17 +7159,17 @@
     <mergeCell ref="A70:A76"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C70:C76"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A128:A145"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="A145:A163"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A103:A111"/>
+    <mergeCell ref="A114:A117"/>
     <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="C158:C161"/>
     <mergeCell ref="A18:A40"/>
     <mergeCell ref="A41:A48"/>
     <mergeCell ref="A49:A52"/>
@@ -6194,7 +7222,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.35">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="92" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="25">
@@ -6214,7 +7242,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.35">
-      <c r="A3" s="90"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="25">
         <v>2</v>
       </c>
@@ -6232,7 +7260,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.35">
-      <c r="A4" s="90"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="25">
         <v>3</v>
       </c>
@@ -6250,7 +7278,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="259.2" x14ac:dyDescent="0.35">
-      <c r="A5" s="90"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="25">
         <v>4</v>
       </c>
@@ -6268,7 +7296,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="92" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="25">
@@ -6288,7 +7316,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A7" s="90"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="25">
         <v>6</v>
       </c>
@@ -6306,7 +7334,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A8" s="90"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="25">
         <v>7</v>
       </c>
@@ -6324,7 +7352,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="87.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="92" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="25">
@@ -6344,7 +7372,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A10" s="90"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="25">
         <v>9</v>
       </c>
@@ -6362,7 +7390,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A11" s="90"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="25">
         <v>10</v>
       </c>
@@ -6380,7 +7408,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="25">
         <v>11</v>
       </c>
@@ -6398,7 +7426,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="25">
         <v>12</v>
       </c>
@@ -6416,7 +7444,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="25">
         <v>13</v>
       </c>
@@ -6434,7 +7462,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A15" s="90"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="25">
         <v>14</v>
       </c>
@@ -6452,7 +7480,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A16" s="90"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="25">
         <v>15</v>
       </c>
@@ -6470,7 +7498,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A17" s="90"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="25">
         <v>16</v>
       </c>
@@ -6488,7 +7516,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A18" s="90"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="25">
         <v>17</v>
       </c>
@@ -6506,7 +7534,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="92" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="25">
@@ -6526,7 +7554,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A20" s="90"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="25">
         <v>19</v>
       </c>
@@ -6544,7 +7572,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="25">
@@ -6564,7 +7592,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A22" s="90"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="25">
         <v>21</v>
       </c>
@@ -6582,7 +7610,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A23" s="90"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="25">
         <v>22</v>
       </c>
@@ -6600,7 +7628,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A24" s="90"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="25">
         <v>23</v>
       </c>
@@ -6618,7 +7646,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A25" s="90"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="25">
         <v>24</v>
       </c>
@@ -6636,7 +7664,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.35">
-      <c r="A26" s="90"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="25">
         <v>25</v>
       </c>
@@ -6654,7 +7682,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A27" s="90"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="25">
         <v>26</v>
       </c>
@@ -6672,7 +7700,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A28" s="90"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="25">
         <v>27</v>
       </c>
@@ -6690,7 +7718,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A29" s="90"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="25">
         <v>28</v>
       </c>
@@ -6708,7 +7736,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A30" s="90"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="25">
         <v>29</v>
       </c>
@@ -6726,7 +7754,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A31" s="90"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="25">
         <v>30</v>
       </c>
@@ -6744,7 +7772,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A32" s="90"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="25">
         <v>31</v>
       </c>
@@ -6762,7 +7790,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A33" s="90"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="25">
         <v>32</v>
       </c>
@@ -6780,7 +7808,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A34" s="90"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="25">
         <v>33</v>
       </c>
@@ -6798,7 +7826,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A35" s="90"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="25">
         <v>34</v>
       </c>
@@ -6816,7 +7844,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A36" s="90"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="25">
         <v>35</v>
       </c>
@@ -6834,7 +7862,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A37" s="90"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="25">
         <v>36</v>
       </c>
@@ -6852,7 +7880,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A38" s="90"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="25">
         <v>37</v>
       </c>
@@ -6870,7 +7898,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A39" s="90"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="25">
         <v>38</v>
       </c>
@@ -6888,7 +7916,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A40" s="90"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="25">
         <v>39</v>
       </c>
@@ -6906,7 +7934,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A41" s="90"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="25">
         <v>40</v>
       </c>
@@ -6924,7 +7952,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="92" t="s">
         <v>33</v>
       </c>
       <c r="B42" s="25">
@@ -6944,7 +7972,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A43" s="90"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="25">
         <v>42</v>
       </c>
@@ -6962,7 +7990,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A44" s="90"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="25">
         <v>43</v>
       </c>
@@ -6980,7 +8008,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A45" s="90"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="25">
         <v>44</v>
       </c>
@@ -6998,7 +8026,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="92" t="s">
         <v>115</v>
       </c>
       <c r="B46" s="25">
@@ -7018,7 +8046,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A47" s="90"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="25">
         <v>46</v>
       </c>
@@ -7036,7 +8064,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A48" s="90"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="25">
         <v>47</v>
       </c>
@@ -7054,7 +8082,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A49" s="90"/>
+      <c r="A49" s="92"/>
       <c r="B49" s="25">
         <v>48</v>
       </c>
@@ -7072,7 +8100,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="92" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="25">
@@ -7092,7 +8120,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A51" s="90"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="25">
         <v>50</v>
       </c>
@@ -7110,7 +8138,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A52" s="90"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="25">
         <v>51</v>
       </c>
@@ -7128,7 +8156,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A53" s="90"/>
+      <c r="A53" s="92"/>
       <c r="B53" s="25">
         <v>52</v>
       </c>
@@ -7146,7 +8174,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A54" s="90"/>
+      <c r="A54" s="92"/>
       <c r="B54" s="25">
         <v>53</v>
       </c>
@@ -7164,7 +8192,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A55" s="90"/>
+      <c r="A55" s="92"/>
       <c r="B55" s="25">
         <v>54</v>
       </c>
@@ -7182,7 +8210,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A56" s="90"/>
+      <c r="A56" s="92"/>
       <c r="B56" s="25">
         <v>55</v>
       </c>
@@ -7200,7 +8228,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A57" s="90"/>
+      <c r="A57" s="92"/>
       <c r="B57" s="25">
         <v>56</v>
       </c>
@@ -7218,7 +8246,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A58" s="90"/>
+      <c r="A58" s="92"/>
       <c r="B58" s="25">
         <v>57</v>
       </c>
@@ -7236,7 +8264,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A59" s="90"/>
+      <c r="A59" s="92"/>
       <c r="B59" s="25">
         <v>58</v>
       </c>
@@ -7254,7 +8282,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A60" s="90" t="s">
+      <c r="A60" s="92" t="s">
         <v>45</v>
       </c>
       <c r="B60" s="25">
@@ -7274,7 +8302,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A61" s="90"/>
+      <c r="A61" s="92"/>
       <c r="B61" s="25">
         <v>60</v>
       </c>
@@ -7292,7 +8320,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A62" s="90"/>
+      <c r="A62" s="92"/>
       <c r="B62" s="25">
         <v>61</v>
       </c>
@@ -7310,7 +8338,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A63" s="90"/>
+      <c r="A63" s="92"/>
       <c r="B63" s="25">
         <v>62</v>
       </c>
@@ -7328,7 +8356,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A64" s="90"/>
+      <c r="A64" s="92"/>
       <c r="B64" s="25">
         <v>63</v>
       </c>
@@ -7346,7 +8374,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A65" s="90"/>
+      <c r="A65" s="92"/>
       <c r="B65" s="25">
         <v>64</v>
       </c>
@@ -7364,7 +8392,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A66" s="90"/>
+      <c r="A66" s="92"/>
       <c r="B66" s="25">
         <v>65</v>
       </c>
@@ -7382,7 +8410,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A67" s="90"/>
+      <c r="A67" s="92"/>
       <c r="B67" s="25">
         <v>66</v>
       </c>
@@ -7400,7 +8428,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A68" s="90"/>
+      <c r="A68" s="92"/>
       <c r="B68" s="25">
         <v>67</v>
       </c>
@@ -7418,7 +8446,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A69" s="90"/>
+      <c r="A69" s="92"/>
       <c r="B69" s="25">
         <v>68</v>
       </c>
@@ -7436,7 +8464,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="93.6" x14ac:dyDescent="0.35">
-      <c r="A70" s="90"/>
+      <c r="A70" s="92"/>
       <c r="B70" s="25">
         <v>69</v>
       </c>
@@ -7454,7 +8482,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="93.6" x14ac:dyDescent="0.35">
-      <c r="A71" s="90"/>
+      <c r="A71" s="92"/>
       <c r="B71" s="25">
         <v>70</v>
       </c>
@@ -7472,7 +8500,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="93.6" x14ac:dyDescent="0.35">
-      <c r="A72" s="90"/>
+      <c r="A72" s="92"/>
       <c r="B72" s="25">
         <v>71</v>
       </c>
@@ -7490,7 +8518,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="93.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="90"/>
+      <c r="A73" s="92"/>
       <c r="B73" s="25">
         <v>72</v>
       </c>
@@ -7508,7 +8536,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A74" s="90" t="s">
+      <c r="A74" s="92" t="s">
         <v>56</v>
       </c>
       <c r="B74" s="25">
@@ -7528,7 +8556,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A75" s="90"/>
+      <c r="A75" s="92"/>
       <c r="B75" s="25">
         <v>74</v>
       </c>
@@ -7546,7 +8574,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="73.2" x14ac:dyDescent="0.35">
-      <c r="A76" s="90"/>
+      <c r="A76" s="92"/>
       <c r="B76" s="25">
         <v>75</v>
       </c>
@@ -7564,7 +8592,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A77" s="90"/>
+      <c r="A77" s="92"/>
       <c r="B77" s="25">
         <v>76</v>
       </c>
@@ -7582,7 +8610,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="73.2" x14ac:dyDescent="0.35">
-      <c r="A78" s="90"/>
+      <c r="A78" s="92"/>
       <c r="B78" s="25">
         <v>77</v>
       </c>
@@ -7600,7 +8628,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="73.2" x14ac:dyDescent="0.35">
-      <c r="A79" s="90"/>
+      <c r="A79" s="92"/>
       <c r="B79" s="25">
         <v>78</v>
       </c>
@@ -7618,7 +8646,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="44.4" x14ac:dyDescent="0.35">
-      <c r="A80" s="91" t="s">
+      <c r="A80" s="93" t="s">
         <v>59</v>
       </c>
       <c r="B80" s="25">
@@ -7638,7 +8666,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="58.8" x14ac:dyDescent="0.35">
-      <c r="A81" s="92"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="25">
         <v>80</v>
       </c>
@@ -7656,7 +8684,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="73.2" x14ac:dyDescent="0.35">
-      <c r="A82" s="93"/>
+      <c r="A82" s="95"/>
       <c r="B82" s="25">
         <v>81</v>
       </c>
